--- a/Exports/CompleteResult.xlsx
+++ b/Exports/CompleteResult.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
     <t>Index</t>
   </si>
@@ -22,7 +22,7 @@
     <t>Time</t>
   </si>
   <si>
-    <t>Tamb [°C]</t>
+    <t>Tavg [°C]</t>
   </si>
   <si>
     <t>Power [W]</t>
@@ -31,13 +31,28 @@
     <t>Effective Irradiance [W/m^2]</t>
   </si>
   <si>
-    <t>Elec Efficency</t>
-  </si>
-  <si>
-    <t>HP_COP</t>
-  </si>
-  <si>
-    <t>HP_Thermal[W]</t>
+    <t>Elec. Efficency [%]</t>
+  </si>
+  <si>
+    <t>ideal elec. energy yield [Wh]</t>
+  </si>
+  <si>
+    <t>Performance Ratio STC[-]</t>
+  </si>
+  <si>
+    <t>Performance Ratio eq [-]</t>
+  </si>
+  <si>
+    <t>spez. elec. energy yield [kWh/kWp]</t>
+  </si>
+  <si>
+    <t>Autarky rate [%]</t>
+  </si>
+  <si>
+    <t>HP_COP [-]</t>
+  </si>
+  <si>
+    <t>HP_Thermal[Wh]</t>
   </si>
   <si>
     <t>Tamb</t>
@@ -432,13 +447,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:X19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:24">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -493,19 +508,34 @@
       <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:24">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3000</v>
+        <v>5548</v>
       </c>
       <c r="C2" s="2">
-        <v>41033.99930555555</v>
+        <v>41140.16597222222</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>20.64</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -517,34 +547,34 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>10.48</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>712.64</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>9.15</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>622.2</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>20.64</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
-      <c r="Q2" t="s">
-        <v>18</v>
+      <c r="Q2">
+        <v>20.64</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -552,884 +582,1109 @@
       <c r="S2">
         <v>0</v>
       </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:24">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3001</v>
+        <v>5549</v>
       </c>
       <c r="C3" s="2">
-        <v>41034.04097222222</v>
+        <v>41140.20763888889</v>
       </c>
       <c r="D3">
-        <v>10.4</v>
+        <v>21.52927204673927</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>55.48</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>13.76</v>
       </c>
       <c r="H3">
-        <v>10.42808</v>
+        <v>60.47</v>
       </c>
       <c r="I3">
-        <v>709.1094399999999</v>
+        <v>0.32</v>
       </c>
       <c r="J3">
-        <v>10.4</v>
+        <v>0.32</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L3">
-        <v>10.4</v>
+        <v>40.26</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>615.4</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>21.11</v>
       </c>
       <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>18</v>
+        <v>22.19</v>
+      </c>
+      <c r="Q3">
+        <v>21.51623696497774</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>31.91796050961846</v>
       </c>
       <c r="S3">
+        <v>0.3842016</v>
+      </c>
+      <c r="T3">
+        <v>0.011</v>
+      </c>
+      <c r="U3">
+        <v>39.29</v>
+      </c>
+      <c r="V3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:24">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3002</v>
+        <v>5550</v>
       </c>
       <c r="C4" s="2">
-        <v>41034.08263888889</v>
+        <v>41140.24930555555</v>
       </c>
       <c r="D4">
-        <v>10.79</v>
+        <v>22.80880774224953</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>172.11</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>14.06</v>
       </c>
       <c r="H4">
-        <v>10.37761205</v>
+        <v>178.48</v>
       </c>
       <c r="I4">
-        <v>705.6776194</v>
+        <v>0.75</v>
       </c>
       <c r="J4">
-        <v>10.79</v>
+        <v>0.76</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="L4">
-        <v>10.79</v>
+        <v>186.24</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>8.92</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>606.5599999999999</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>21.59</v>
       </c>
       <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>18</v>
+        <v>67.09999999999999</v>
+      </c>
+      <c r="Q4">
+        <v>22.65200387654789</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>32.18450290506866</v>
       </c>
       <c r="S4">
+        <v>0.3842016</v>
+      </c>
+      <c r="T4">
+        <v>0.028</v>
+      </c>
+      <c r="U4">
+        <v>32.94</v>
+      </c>
+      <c r="V4" t="s">
+        <v>23</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:24">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3003</v>
+        <v>5551</v>
       </c>
       <c r="C5" s="2">
-        <v>41034.12430555555</v>
+        <v>41140.29097222222</v>
       </c>
       <c r="D5">
-        <v>11.19</v>
+        <v>27.02946972159518</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>395.56</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>14.31</v>
       </c>
       <c r="H5">
-        <v>10.32600805</v>
+        <v>397.02</v>
       </c>
       <c r="I5">
-        <v>702.1685474000001</v>
+        <v>0.89</v>
       </c>
       <c r="J5">
-        <v>11.19</v>
+        <v>0.9</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="L5">
-        <v>11.19</v>
+        <v>321.48</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>8.44</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>573.92</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>24.48</v>
       </c>
       <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>18</v>
+        <v>151.09</v>
+      </c>
+      <c r="Q5">
+        <v>26.76852626229243</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>32.90116568827695</v>
       </c>
       <c r="S5">
+        <v>0.3842016</v>
+      </c>
+      <c r="T5">
+        <v>0.061</v>
+      </c>
+      <c r="U5">
+        <v>31.77</v>
+      </c>
+      <c r="V5" t="s">
+        <v>23</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:24">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3004</v>
+        <v>5552</v>
       </c>
       <c r="C6" s="2">
-        <v>41034.16597222222</v>
+        <v>41140.33263888889</v>
       </c>
       <c r="D6">
-        <v>11.17</v>
+        <v>31.78008380974699</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>724.72</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>352</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>14.3</v>
       </c>
       <c r="H6">
-        <v>10.32858445</v>
+        <v>711.89</v>
       </c>
       <c r="I6">
-        <v>702.3437425999999</v>
+        <v>0.95</v>
       </c>
       <c r="J6">
-        <v>11.17</v>
+        <v>0.96</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="L6">
-        <v>11.17</v>
+        <v>483.7</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>7.92</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>538.5599999999999</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>27.38</v>
       </c>
       <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>18</v>
+        <v>277.03</v>
+      </c>
+      <c r="Q6">
+        <v>31.50621552136363</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>34.02303348176625</v>
       </c>
       <c r="S6">
+        <v>0.3842016</v>
+      </c>
+      <c r="T6">
+        <v>0.111</v>
+      </c>
+      <c r="U6">
+        <v>31.53</v>
+      </c>
+      <c r="V6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:24">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3005</v>
+        <v>5553</v>
       </c>
       <c r="C7" s="2">
-        <v>41034.20763888889</v>
+        <v>41140.37430555555</v>
       </c>
       <c r="D7">
-        <v>11.58060547048373</v>
+        <v>36.59493695867236</v>
       </c>
       <c r="E7">
-        <v>51.05</v>
+        <v>1073.8</v>
       </c>
       <c r="F7">
-        <v>25</v>
+        <v>525</v>
       </c>
       <c r="G7">
-        <v>14.18</v>
+        <v>14.2</v>
       </c>
       <c r="H7">
-        <v>10.28556706656229</v>
+        <v>1041.71</v>
       </c>
       <c r="I7">
-        <v>699.4185605262359</v>
+        <v>0.98</v>
       </c>
       <c r="J7">
-        <v>11.14</v>
+        <v>0.99</v>
       </c>
       <c r="K7">
-        <v>19.7</v>
+        <v>0.49</v>
       </c>
       <c r="L7">
-        <v>11.50434196781362</v>
+        <v>646.63</v>
       </c>
       <c r="M7">
-        <v>29.69328646959075</v>
+        <v>7.4</v>
       </c>
       <c r="N7">
+        <v>503.2</v>
+      </c>
+      <c r="O7">
+        <v>30.28</v>
+      </c>
+      <c r="P7">
+        <v>413.68</v>
+      </c>
+      <c r="Q7">
+        <v>36.39784012268746</v>
+      </c>
+      <c r="R7">
+        <v>35.20275813843804</v>
+      </c>
+      <c r="S7">
         <v>0.3842016</v>
       </c>
-      <c r="O7">
-        <v>0.01</v>
-      </c>
-      <c r="P7">
-        <v>40</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>18</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
+      <c r="T7">
+        <v>0.164</v>
+      </c>
+      <c r="U7">
+        <v>31.24</v>
+      </c>
+      <c r="V7" t="s">
+        <v>23</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:24">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3006</v>
+        <v>5554</v>
       </c>
       <c r="C8" s="2">
-        <v>41034.24930555555</v>
+        <v>41140.41597222222</v>
       </c>
       <c r="D8">
-        <v>11.65897662371252</v>
+        <v>39.55622569701902</v>
       </c>
       <c r="E8">
-        <v>65.33</v>
+        <v>1377.99</v>
       </c>
       <c r="F8">
-        <v>32</v>
+        <v>677</v>
       </c>
       <c r="G8">
-        <v>14.18</v>
+        <v>14.13</v>
       </c>
       <c r="H8">
-        <v>10.27778952595877</v>
+        <v>1327.55</v>
       </c>
       <c r="I8">
-        <v>698.8896877651963</v>
+        <v>0.99</v>
       </c>
       <c r="J8">
-        <v>11.12</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>25.22</v>
+        <v>0.63</v>
       </c>
       <c r="L8">
-        <v>11.56488388327148</v>
+        <v>801.23</v>
       </c>
       <c r="M8">
-        <v>29.70754316199148</v>
+        <v>7.1</v>
       </c>
       <c r="N8">
+        <v>482.8</v>
+      </c>
+      <c r="O8">
+        <v>31.44</v>
+      </c>
+      <c r="P8">
+        <v>533.92</v>
+      </c>
+      <c r="Q8">
+        <v>39.30836390911162</v>
+      </c>
+      <c r="R8">
+        <v>35.92187916037615</v>
+      </c>
+      <c r="S8">
         <v>0.3842016</v>
       </c>
-      <c r="O8">
-        <v>0.012</v>
-      </c>
-      <c r="P8">
-        <v>37.5</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>18</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
+      <c r="T8">
+        <v>0.211</v>
+      </c>
+      <c r="U8">
+        <v>31.17</v>
+      </c>
+      <c r="V8" t="s">
+        <v>23</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:24">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3007</v>
+        <v>5555</v>
       </c>
       <c r="C9" s="2">
-        <v>41034.29097222222</v>
+        <v>41140.45763888889</v>
       </c>
       <c r="D9">
-        <v>12.24218912675658</v>
+        <v>41.79465802910201</v>
       </c>
       <c r="E9">
-        <v>84.97</v>
+        <v>1553.47</v>
       </c>
       <c r="F9">
-        <v>41</v>
+        <v>768</v>
       </c>
       <c r="G9">
-        <v>14.39</v>
+        <v>14.05</v>
       </c>
       <c r="H9">
-        <v>10.20953548956181</v>
+        <v>1492.22</v>
       </c>
       <c r="I9">
-        <v>694.2484132902033</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>11.55</v>
+        <v>1.01</v>
       </c>
       <c r="K9">
-        <v>32.23</v>
+        <v>0.72</v>
       </c>
       <c r="L9">
-        <v>12.09741605767448</v>
+        <v>913.5</v>
       </c>
       <c r="M9">
-        <v>29.82510571347458</v>
+        <v>6.88</v>
       </c>
       <c r="N9">
+        <v>467.84</v>
+      </c>
+      <c r="O9">
+        <v>32.6</v>
+      </c>
+      <c r="P9">
+        <v>606.36</v>
+      </c>
+      <c r="Q9">
+        <v>41.52254428354365</v>
+      </c>
+      <c r="R9">
+        <v>36.47003319711263</v>
+      </c>
+      <c r="S9">
         <v>0.3842016</v>
       </c>
-      <c r="O9">
-        <v>0.015</v>
-      </c>
-      <c r="P9">
-        <v>36.59</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>18</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
+      <c r="T9">
+        <v>0.239</v>
+      </c>
+      <c r="U9">
+        <v>31.12</v>
+      </c>
+      <c r="V9" t="s">
+        <v>23</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:24">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3008</v>
+        <v>5556</v>
       </c>
       <c r="C10" s="2">
-        <v>41034.33263888889</v>
+        <v>41140.49930555555</v>
       </c>
       <c r="D10">
-        <v>13.23382934753618</v>
+        <v>42.91391917402582</v>
       </c>
       <c r="E10">
-        <v>159.49</v>
+        <v>1538.72</v>
       </c>
       <c r="F10">
-        <v>76</v>
+        <v>764</v>
       </c>
       <c r="G10">
-        <v>14.57</v>
+        <v>13.99</v>
       </c>
       <c r="H10">
-        <v>10.1050018795693</v>
+        <v>1478.41</v>
       </c>
       <c r="I10">
-        <v>687.1401278107127</v>
+        <v>0.99</v>
       </c>
       <c r="J10">
-        <v>11.97</v>
+        <v>1.01</v>
       </c>
       <c r="K10">
-        <v>59.6</v>
+        <v>0.71</v>
       </c>
       <c r="L10">
-        <v>12.91733493847948</v>
+        <v>901.6799999999999</v>
       </c>
       <c r="M10">
-        <v>30.00974335407427</v>
+        <v>6.77</v>
       </c>
       <c r="N10">
+        <v>460.36</v>
+      </c>
+      <c r="O10">
+        <v>33.76</v>
+      </c>
+      <c r="P10">
+        <v>603.66</v>
+      </c>
+      <c r="Q10">
+        <v>42.64386786003314</v>
+      </c>
+      <c r="R10">
+        <v>36.74159439858167</v>
+      </c>
+      <c r="S10">
         <v>0.3842016</v>
       </c>
-      <c r="O10">
-        <v>0.025</v>
-      </c>
-      <c r="P10">
-        <v>32.89</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>18</v>
-      </c>
-      <c r="R10">
+      <c r="T10">
+        <v>0.238</v>
+      </c>
+      <c r="U10">
+        <v>31.15</v>
+      </c>
+      <c r="V10" t="s">
+        <v>23</v>
+      </c>
+      <c r="W10">
         <v>1</v>
       </c>
-      <c r="S10">
+      <c r="X10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:24">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3009</v>
+        <v>5557</v>
       </c>
       <c r="C11" s="2">
-        <v>41034.37430555555</v>
+        <v>41140.54097222222</v>
       </c>
       <c r="D11">
-        <v>14.21297459973005</v>
+        <v>42.47030915801759</v>
       </c>
       <c r="E11">
-        <v>231.05</v>
+        <v>1349.72</v>
       </c>
       <c r="F11">
-        <v>109</v>
+        <v>671</v>
       </c>
       <c r="G11">
-        <v>14.72</v>
+        <v>13.97</v>
       </c>
       <c r="H11">
-        <v>10.0029217596519</v>
+        <v>1301.1</v>
       </c>
       <c r="I11">
-        <v>680.1986796563295</v>
+        <v>0.99</v>
       </c>
       <c r="J11">
-        <v>12.4</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>85.31999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="L11">
-        <v>13.72314733371041</v>
+        <v>848.71</v>
       </c>
       <c r="M11">
-        <v>30.19150968202671</v>
+        <v>6.85</v>
       </c>
       <c r="N11">
+        <v>465.8</v>
+      </c>
+      <c r="O11">
+        <v>33.99</v>
+      </c>
+      <c r="P11">
+        <v>530.3</v>
+      </c>
+      <c r="Q11">
+        <v>41.80934062905709</v>
+      </c>
+      <c r="R11">
+        <v>36.52411564382545</v>
+      </c>
+      <c r="S11">
         <v>0.3842016</v>
       </c>
-      <c r="O11">
-        <v>0.035</v>
-      </c>
-      <c r="P11">
-        <v>32.11</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>18</v>
-      </c>
-      <c r="R11">
+      <c r="T11">
+        <v>0.21</v>
+      </c>
+      <c r="U11">
+        <v>31.3</v>
+      </c>
+      <c r="V11" t="s">
+        <v>23</v>
+      </c>
+      <c r="W11">
         <v>1</v>
       </c>
-      <c r="S11">
+      <c r="X11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:24">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3010</v>
+        <v>5558</v>
       </c>
       <c r="C12" s="2">
-        <v>41034.41597222222</v>
+        <v>41140.58263888889</v>
       </c>
       <c r="D12">
-        <v>14.28599958181954</v>
+        <v>41.16313742222992</v>
       </c>
       <c r="E12">
-        <v>208.66</v>
+        <v>1038.05</v>
       </c>
       <c r="F12">
-        <v>99</v>
+        <v>518</v>
       </c>
       <c r="G12">
-        <v>14.64</v>
+        <v>13.92</v>
       </c>
       <c r="H12">
-        <v>9.975543377514217</v>
+        <v>1008.41</v>
       </c>
       <c r="I12">
-        <v>678.3369496709668</v>
+        <v>0.97</v>
       </c>
       <c r="J12">
-        <v>12.73</v>
+        <v>0.99</v>
       </c>
       <c r="K12">
-        <v>77.58</v>
+        <v>0.47</v>
       </c>
       <c r="L12">
-        <v>13.94014614069857</v>
+        <v>721.66</v>
       </c>
       <c r="M12">
-        <v>30.2377931519521</v>
+        <v>7</v>
       </c>
       <c r="N12">
+        <v>476</v>
+      </c>
+      <c r="O12">
+        <v>34.22</v>
+      </c>
+      <c r="P12">
+        <v>409.65</v>
+      </c>
+      <c r="Q12">
+        <v>40.28417660104788</v>
+      </c>
+      <c r="R12">
+        <v>36.13151436590128</v>
+      </c>
+      <c r="S12">
         <v>0.3842016</v>
       </c>
-      <c r="O12">
-        <v>0.032</v>
-      </c>
-      <c r="P12">
-        <v>32.32</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>18</v>
-      </c>
-      <c r="R12">
+      <c r="T12">
+        <v>0.163</v>
+      </c>
+      <c r="U12">
+        <v>31.47</v>
+      </c>
+      <c r="V12" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12">
         <v>1</v>
       </c>
-      <c r="S12">
+      <c r="X12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:24">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3011</v>
+        <v>5559</v>
       </c>
       <c r="C13" s="2">
-        <v>41034.45763888889</v>
+        <v>41140.62430555555</v>
       </c>
       <c r="D13">
-        <v>14.90785104886492</v>
+        <v>39.44001411660747</v>
       </c>
       <c r="E13">
-        <v>262.03</v>
+        <v>691.72</v>
       </c>
       <c r="F13">
-        <v>123</v>
+        <v>347</v>
       </c>
       <c r="G13">
-        <v>14.79</v>
+        <v>13.84</v>
       </c>
       <c r="H13">
-        <v>9.898599718214921</v>
+        <v>681.37</v>
       </c>
       <c r="I13">
-        <v>673.1047808386146</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="J13">
-        <v>13.07</v>
+        <v>0.96</v>
       </c>
       <c r="K13">
-        <v>96.19</v>
+        <v>0.31</v>
       </c>
       <c r="L13">
-        <v>14.55200505217374</v>
+        <v>497.63</v>
       </c>
       <c r="M13">
-        <v>30.37614167779422</v>
+        <v>7.18</v>
       </c>
       <c r="N13">
+        <v>488.24</v>
+      </c>
+      <c r="O13">
+        <v>34.45</v>
+      </c>
+      <c r="P13">
+        <v>274.67</v>
+      </c>
+      <c r="Q13">
+        <v>38.54759380987457</v>
+      </c>
+      <c r="R13">
+        <v>35.68734588438377</v>
+      </c>
+      <c r="S13">
         <v>0.3842016</v>
       </c>
-      <c r="O13">
-        <v>0.04</v>
-      </c>
-      <c r="P13">
-        <v>32.52</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>18</v>
-      </c>
-      <c r="R13">
+      <c r="T13">
+        <v>0.11</v>
+      </c>
+      <c r="U13">
+        <v>31.7</v>
+      </c>
+      <c r="V13" t="s">
+        <v>23</v>
+      </c>
+      <c r="W13">
         <v>1</v>
       </c>
-      <c r="S13">
+      <c r="X13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:24">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3012</v>
+        <v>5560</v>
       </c>
       <c r="C14" s="2">
-        <v>41034.49930555555</v>
+        <v>41140.66597222222</v>
       </c>
       <c r="D14">
-        <v>15.07722984320115</v>
+        <v>35.75584529946498</v>
       </c>
       <c r="E14">
-        <v>248.8</v>
+        <v>380.74</v>
       </c>
       <c r="F14">
-        <v>117</v>
+        <v>192</v>
       </c>
       <c r="G14">
-        <v>14.77</v>
+        <v>13.77</v>
       </c>
       <c r="H14">
-        <v>9.864506858883798</v>
+        <v>383.77</v>
       </c>
       <c r="I14">
-        <v>670.7864664040983</v>
+        <v>0.88</v>
       </c>
       <c r="J14">
-        <v>13.41</v>
+        <v>0.89</v>
       </c>
       <c r="K14">
-        <v>91.53</v>
+        <v>0.16</v>
       </c>
       <c r="L14">
-        <v>14.82406893588688</v>
+        <v>262.38</v>
       </c>
       <c r="M14">
-        <v>30.43531218629886</v>
+        <v>7.53</v>
       </c>
       <c r="N14">
+        <v>512.04</v>
+      </c>
+      <c r="O14">
+        <v>32.82</v>
+      </c>
+      <c r="P14">
+        <v>152.12</v>
+      </c>
+      <c r="Q14">
+        <v>35.12885669595232</v>
+      </c>
+      <c r="R14">
+        <v>34.84909185877343</v>
+      </c>
+      <c r="S14">
         <v>0.3842016</v>
       </c>
-      <c r="O14">
-        <v>0.038</v>
-      </c>
-      <c r="P14">
-        <v>32.48</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>18</v>
-      </c>
-      <c r="R14">
+      <c r="T14">
+        <v>0.062</v>
+      </c>
+      <c r="U14">
+        <v>32.29</v>
+      </c>
+      <c r="V14" t="s">
+        <v>23</v>
+      </c>
+      <c r="W14">
         <v>1</v>
       </c>
-      <c r="S14">
+      <c r="X14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:24">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3013</v>
+        <v>5561</v>
       </c>
       <c r="C15" s="2">
-        <v>41034.54097222222</v>
+        <v>41140.70763888889</v>
       </c>
       <c r="D15">
-        <v>15.30956682944327</v>
+        <v>32.6141341456872</v>
       </c>
       <c r="E15">
-        <v>353.37</v>
+        <v>165.52</v>
       </c>
       <c r="F15">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="G15">
-        <v>14.87</v>
+        <v>13.52</v>
       </c>
       <c r="H15">
-        <v>9.847582876481843</v>
+        <v>172.88</v>
       </c>
       <c r="I15">
-        <v>669.6356356007653</v>
+        <v>0.74</v>
       </c>
       <c r="J15">
-        <v>13</v>
+        <v>0.75</v>
       </c>
       <c r="K15">
-        <v>128.91</v>
+        <v>0.06</v>
       </c>
       <c r="L15">
-        <v>14.95934359991674</v>
+        <v>91.55</v>
       </c>
       <c r="M15">
-        <v>30.47230142016583</v>
+        <v>7.83</v>
       </c>
       <c r="N15">
+        <v>532.4400000000001</v>
+      </c>
+      <c r="O15">
+        <v>31.2</v>
+      </c>
+      <c r="P15">
+        <v>67.56</v>
+      </c>
+      <c r="Q15">
+        <v>32.27376331303623</v>
+      </c>
+      <c r="R15">
+        <v>34.16014518196838</v>
+      </c>
+      <c r="S15">
         <v>0.3842016</v>
       </c>
-      <c r="O15">
-        <v>0.053</v>
-      </c>
-      <c r="P15">
-        <v>32.12</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>18</v>
-      </c>
-      <c r="R15">
-        <v>1</v>
-      </c>
-      <c r="S15">
+      <c r="T15">
+        <v>0.029</v>
+      </c>
+      <c r="U15">
+        <v>34.12</v>
+      </c>
+      <c r="V15" t="s">
+        <v>23</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:24">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3014</v>
+        <v>5562</v>
       </c>
       <c r="C16" s="2">
-        <v>41034.58263888889</v>
+        <v>41140.74930555555</v>
       </c>
       <c r="D16">
-        <v>13.81967984669389</v>
+        <v>29.91912043403099</v>
       </c>
       <c r="E16">
-        <v>186.8</v>
+        <v>36.23</v>
       </c>
       <c r="F16">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="G16">
-        <v>14.74</v>
+        <v>13.24</v>
       </c>
       <c r="H16">
-        <v>10.01054939889092</v>
+        <v>40.65</v>
       </c>
       <c r="I16">
-        <v>680.7173591245827</v>
+        <v>0.01</v>
       </c>
       <c r="J16">
-        <v>12.58</v>
+        <v>0.01</v>
       </c>
       <c r="K16">
-        <v>68.87</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>13.66275767699437</v>
+        <v>0.2</v>
       </c>
       <c r="M16">
-        <v>30.17515593745571</v>
+        <v>8.09</v>
       </c>
       <c r="N16">
+        <v>550.12</v>
+      </c>
+      <c r="O16">
+        <v>29.57</v>
+      </c>
+      <c r="P16">
+        <v>15.15</v>
+      </c>
+      <c r="Q16">
+        <v>29.87792925412037</v>
+      </c>
+      <c r="R16">
+        <v>33.59110758542812</v>
+      </c>
+      <c r="S16">
         <v>0.3842016</v>
       </c>
-      <c r="O16">
-        <v>0.029</v>
-      </c>
-      <c r="P16">
-        <v>32.95</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>18</v>
-      </c>
-      <c r="R16">
-        <v>1</v>
-      </c>
-      <c r="S16">
+      <c r="T16">
+        <v>0.008</v>
+      </c>
+      <c r="U16">
+        <v>42.11</v>
+      </c>
+      <c r="V16" t="s">
+        <v>23</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:24">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3015</v>
+        <v>5563</v>
       </c>
       <c r="C17" s="2">
-        <v>41034.62430555555</v>
+        <v>41140.79097222222</v>
       </c>
       <c r="D17">
-        <v>12.74215185226564</v>
+        <v>27.97</v>
       </c>
       <c r="E17">
-        <v>82.97</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>14.4</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>10.13185953736354</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>688.9664485407209</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>12.17</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>31.44</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>12.70617031950417</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>29.95811403317437</v>
+        <v>8.31</v>
       </c>
       <c r="N17">
-        <v>0.3842016</v>
+        <v>565.08</v>
       </c>
       <c r="O17">
-        <v>0.014</v>
+        <v>27.97</v>
       </c>
       <c r="P17">
-        <v>35</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>27.97</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -1437,288 +1692,144 @@
       <c r="S17">
         <v>0</v>
       </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17" t="s">
+        <v>23</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:24">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3016</v>
-      </c>
-      <c r="C18" s="2">
-        <v>41034.66597222222</v>
+        <v>88888</v>
       </c>
       <c r="D18">
-        <v>12.04269011459649</v>
+        <v>533.9799337551883</v>
       </c>
       <c r="E18">
-        <v>63.42</v>
+        <v>10553.83</v>
       </c>
       <c r="F18">
-        <v>31</v>
+        <v>5223</v>
       </c>
       <c r="G18">
-        <v>14.21</v>
+        <v>195.06</v>
       </c>
       <c r="H18">
-        <v>10.21899330544342</v>
+        <v>10275.93</v>
       </c>
       <c r="I18">
-        <v>694.8915447701522</v>
+        <v>11.4</v>
       </c>
       <c r="J18">
-        <v>11.59</v>
+        <v>11.55</v>
       </c>
       <c r="K18">
-        <v>24.43</v>
+        <v>4.74</v>
       </c>
       <c r="L18">
-        <v>12.02349195697349</v>
+        <v>6716.849999999999</v>
       </c>
       <c r="M18">
-        <v>29.80746803589752</v>
+        <v>124.42</v>
       </c>
       <c r="N18">
-        <v>0.3842016</v>
+        <v>8460.559999999999</v>
       </c>
       <c r="O18">
-        <v>0.012</v>
+        <v>467.5</v>
       </c>
       <c r="P18">
-        <v>38.71</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>18</v>
+        <v>4124.48</v>
+      </c>
+      <c r="Q18">
+        <v>528.847259103646</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>486.3062479995193</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>5.3788224</v>
+      </c>
+      <c r="T18">
+        <v>1.645</v>
+      </c>
+      <c r="U18">
+        <v>463.2</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:24">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3017</v>
-      </c>
-      <c r="C19" s="2">
-        <v>41034.70763888889</v>
+        <v>6349.142857142857</v>
       </c>
       <c r="D19">
-        <v>11.31424708216847</v>
+        <v>38.14142383965631</v>
       </c>
       <c r="E19">
-        <v>40.48</v>
+        <v>753.8449999999999</v>
       </c>
       <c r="F19">
-        <v>20</v>
+        <v>373.0714285714286</v>
       </c>
       <c r="G19">
-        <v>14.06</v>
+        <v>13.93285714285714</v>
       </c>
       <c r="H19">
-        <v>10.30964528770005</v>
+        <v>733.995</v>
       </c>
       <c r="I19">
-        <v>701.0558795636035</v>
+        <v>0.8142857142857142</v>
       </c>
       <c r="J19">
-        <v>11.01</v>
+        <v>0.825</v>
       </c>
       <c r="K19">
-        <v>15.79</v>
+        <v>0.3385714285714286</v>
       </c>
       <c r="L19">
-        <v>11.31709291673542</v>
+        <v>479.775</v>
       </c>
       <c r="M19">
-        <v>29.6517379922805</v>
+        <v>8.887142857142857</v>
       </c>
       <c r="N19">
+        <v>604.3257142857143</v>
+      </c>
+      <c r="O19">
+        <v>33.39285714285715</v>
+      </c>
+      <c r="P19">
+        <v>294.6057142857143</v>
+      </c>
+      <c r="Q19">
+        <v>37.774804221689</v>
+      </c>
+      <c r="R19">
+        <v>34.73616057139423</v>
+      </c>
+      <c r="S19">
         <v>0.3842016</v>
       </c>
-      <c r="O19">
-        <v>0.008</v>
-      </c>
-      <c r="P19">
-        <v>40</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>18</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>3018</v>
-      </c>
-      <c r="C20" s="2">
-        <v>41034.74930555555</v>
-      </c>
-      <c r="D20">
-        <v>10.54090549159665</v>
-      </c>
-      <c r="E20">
-        <v>11.19</v>
-      </c>
-      <c r="F20">
-        <v>5</v>
-      </c>
-      <c r="G20">
-        <v>15.54</v>
-      </c>
-      <c r="H20">
-        <v>10.40569495001859</v>
-      </c>
-      <c r="I20">
-        <v>707.5872566012638</v>
-      </c>
-      <c r="J20">
-        <v>10.44</v>
-      </c>
-      <c r="K20">
-        <v>3.87</v>
-      </c>
-      <c r="L20">
-        <v>10.57283940363533</v>
-      </c>
-      <c r="M20">
-        <v>29.48757645996879</v>
-      </c>
-      <c r="N20">
-        <v>0.3842016</v>
-      </c>
-      <c r="O20">
-        <v>0.004</v>
-      </c>
-      <c r="P20">
-        <v>80</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>18</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>3019</v>
-      </c>
-      <c r="C21" s="2">
-        <v>41034.79097222222</v>
-      </c>
-      <c r="D21">
-        <v>10.09</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>10.46830405</v>
-      </c>
-      <c r="I21">
-        <v>711.8446753999999</v>
-      </c>
-      <c r="J21">
-        <v>10.09</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>10.09</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>18</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>60190</v>
-      </c>
-      <c r="D22">
-        <v>246.6088968588691</v>
-      </c>
-      <c r="E22">
-        <v>2049.61</v>
-      </c>
-      <c r="F22">
-        <v>971</v>
-      </c>
-      <c r="G22">
-        <v>204.06</v>
-      </c>
-      <c r="H22">
-        <v>203.9523796318154</v>
-      </c>
-      <c r="I22">
-        <v>13868.76181496345</v>
-      </c>
-      <c r="J22">
-        <v>231.82</v>
-      </c>
-      <c r="K22">
-        <v>760.6799999999998</v>
-      </c>
-      <c r="L22">
-        <v>244.0050401834682</v>
-      </c>
-      <c r="M22">
-        <v>420.0287892761457</v>
-      </c>
-      <c r="N22">
-        <v>5.3788224</v>
-      </c>
-      <c r="O22">
-        <v>0.3270000000000001</v>
-      </c>
-      <c r="P22">
-        <v>535.1900000000001</v>
+      <c r="T19">
+        <v>0.1175</v>
+      </c>
+      <c r="U19">
+        <v>33.08571428571429</v>
       </c>
     </row>
   </sheetData>

--- a/Exports/CompleteResult.xlsx
+++ b/Exports/CompleteResult.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>Index</t>
   </si>
@@ -22,7 +22,16 @@
     <t>Time</t>
   </si>
   <si>
-    <t>Tavg [°C]</t>
+    <t>Tamb [°C]</t>
+  </si>
+  <si>
+    <t>Tmcooling [°C]</t>
+  </si>
+  <si>
+    <t>Tm [°C]</t>
+  </si>
+  <si>
+    <t>T heatflux [°C]</t>
   </si>
   <si>
     <t>Power [W]</t>
@@ -37,6 +46,9 @@
     <t>ideal elec. energy yield [Wh]</t>
   </si>
   <si>
+    <t>Performance Ratio [-]</t>
+  </si>
+  <si>
     <t>Performance Ratio STC[-]</t>
   </si>
   <si>
@@ -55,13 +67,7 @@
     <t>HP_Thermal[Wh]</t>
   </si>
   <si>
-    <t>Tamb</t>
-  </si>
-  <si>
     <t>E_sdp_eff</t>
-  </si>
-  <si>
-    <t>T_out</t>
   </si>
   <si>
     <t>P_fan</t>
@@ -447,13 +453,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X19"/>
+  <dimension ref="A1:Z20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:26">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -523,1138 +529,1234 @@
       <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:26">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5548</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2">
-        <v>41140.16597222222</v>
+        <v>40909.33333333334</v>
       </c>
       <c r="D2">
-        <v>20.64</v>
+        <v>11.35</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>11.57</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>11.67</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>11.61</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>33.2</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>14.41</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>36.68</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>9.15</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>622.2</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>20.64</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>20.64</v>
+        <v>10.27</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>698.36</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>12.57</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>29.71503191153772</v>
       </c>
       <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2" t="s">
-        <v>23</v>
+        <v>0.3842016</v>
+      </c>
+      <c r="V2">
+        <v>0.007</v>
       </c>
       <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
+        <v>43.75</v>
+      </c>
+      <c r="X2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:26">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5549</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2">
-        <v>41140.20763888889</v>
+        <v>40909.375</v>
       </c>
       <c r="D3">
-        <v>21.52927204673927</v>
+        <v>11.62</v>
       </c>
       <c r="E3">
-        <v>55.48</v>
+        <v>12.43</v>
       </c>
       <c r="F3">
-        <v>28</v>
+        <v>12.81</v>
       </c>
       <c r="G3">
-        <v>13.76</v>
+        <v>12.46</v>
       </c>
       <c r="H3">
-        <v>60.47</v>
+        <v>141.15</v>
       </c>
       <c r="I3">
-        <v>0.32</v>
+        <v>67</v>
       </c>
       <c r="J3">
-        <v>0.32</v>
+        <v>14.63</v>
       </c>
       <c r="K3">
-        <v>0.01</v>
+        <v>146.77</v>
       </c>
       <c r="L3">
-        <v>40.26</v>
+        <v>0.74</v>
       </c>
       <c r="M3">
-        <v>9.050000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="N3">
-        <v>615.4</v>
+        <v>0.7</v>
       </c>
       <c r="O3">
-        <v>21.11</v>
+        <v>0.05</v>
       </c>
       <c r="P3">
-        <v>22.19</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="Q3">
-        <v>21.51623696497774</v>
+        <v>10.16</v>
       </c>
       <c r="R3">
-        <v>31.91796050961846</v>
+        <v>690.88</v>
       </c>
       <c r="S3">
+        <v>52.51</v>
+      </c>
+      <c r="T3">
+        <v>29.90901708002477</v>
+      </c>
+      <c r="U3">
         <v>0.3842016</v>
       </c>
-      <c r="T3">
-        <v>0.011</v>
-      </c>
-      <c r="U3">
-        <v>39.29</v>
-      </c>
-      <c r="V3" t="s">
-        <v>23</v>
+      <c r="V3">
+        <v>0.023</v>
       </c>
       <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
+        <v>34.33</v>
+      </c>
+      <c r="X3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:26">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5550</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2">
-        <v>41140.24930555555</v>
+        <v>40909.41666666666</v>
       </c>
       <c r="D4">
-        <v>22.80880774224953</v>
+        <v>11.87</v>
       </c>
       <c r="E4">
-        <v>172.11</v>
+        <v>12.84</v>
       </c>
       <c r="F4">
-        <v>85</v>
+        <v>13.32</v>
       </c>
       <c r="G4">
-        <v>14.06</v>
+        <v>12.85</v>
       </c>
       <c r="H4">
-        <v>178.48</v>
+        <v>167.4</v>
       </c>
       <c r="I4">
+        <v>79</v>
+      </c>
+      <c r="J4">
+        <v>14.72</v>
+      </c>
+      <c r="K4">
+        <v>172.91</v>
+      </c>
+      <c r="L4">
         <v>0.75</v>
       </c>
-      <c r="J4">
-        <v>0.76</v>
-      </c>
-      <c r="K4">
+      <c r="M4">
+        <v>0.75</v>
+      </c>
+      <c r="N4">
+        <v>0.75</v>
+      </c>
+      <c r="O4">
         <v>0.06</v>
       </c>
-      <c r="L4">
-        <v>186.24</v>
-      </c>
-      <c r="M4">
-        <v>8.92</v>
-      </c>
-      <c r="N4">
-        <v>606.5599999999999</v>
-      </c>
-      <c r="O4">
-        <v>21.59</v>
-      </c>
       <c r="P4">
-        <v>67.09999999999999</v>
+        <v>88.43000000000001</v>
       </c>
       <c r="Q4">
-        <v>22.65200387654789</v>
+        <v>10.11</v>
       </c>
       <c r="R4">
-        <v>32.18450290506866</v>
+        <v>687.48</v>
       </c>
       <c r="S4">
+        <v>61.84</v>
+      </c>
+      <c r="T4">
+        <v>29.99541175831767</v>
+      </c>
+      <c r="U4">
         <v>0.3842016</v>
       </c>
-      <c r="T4">
-        <v>0.028</v>
-      </c>
-      <c r="U4">
-        <v>32.94</v>
-      </c>
-      <c r="V4" t="s">
-        <v>23</v>
+      <c r="V4">
+        <v>0.026</v>
       </c>
       <c r="W4">
-        <v>1</v>
-      </c>
-      <c r="X4">
+        <v>32.91</v>
+      </c>
+      <c r="X4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:26">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5551</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2">
-        <v>41140.29097222222</v>
+        <v>40909.45833333334</v>
       </c>
       <c r="D5">
-        <v>27.02946972159518</v>
+        <v>12.12</v>
       </c>
       <c r="E5">
-        <v>395.56</v>
+        <v>13.26</v>
       </c>
       <c r="F5">
-        <v>192</v>
+        <v>13.84</v>
       </c>
       <c r="G5">
-        <v>14.31</v>
+        <v>13.25</v>
       </c>
       <c r="H5">
-        <v>397.02</v>
+        <v>195.52</v>
       </c>
       <c r="I5">
-        <v>0.89</v>
+        <v>92</v>
       </c>
       <c r="J5">
-        <v>0.9</v>
+        <v>14.76</v>
       </c>
       <c r="K5">
-        <v>0.17</v>
+        <v>200.76</v>
       </c>
       <c r="L5">
-        <v>321.48</v>
+        <v>0.86</v>
       </c>
       <c r="M5">
-        <v>8.44</v>
+        <v>0.78</v>
       </c>
       <c r="N5">
-        <v>573.92</v>
+        <v>0.78</v>
       </c>
       <c r="O5">
-        <v>24.48</v>
+        <v>0.08</v>
       </c>
       <c r="P5">
-        <v>151.09</v>
+        <v>98.8</v>
       </c>
       <c r="Q5">
-        <v>26.76852626229243</v>
+        <v>10.06</v>
       </c>
       <c r="R5">
-        <v>32.90116568827695</v>
+        <v>684.08</v>
       </c>
       <c r="S5">
+        <v>71.98</v>
+      </c>
+      <c r="T5">
+        <v>30.08464724337378</v>
+      </c>
+      <c r="U5">
         <v>0.3842016</v>
       </c>
-      <c r="T5">
-        <v>0.061</v>
-      </c>
-      <c r="U5">
-        <v>31.77</v>
-      </c>
-      <c r="V5" t="s">
-        <v>23</v>
+      <c r="V5">
+        <v>0.03</v>
       </c>
       <c r="W5">
+        <v>32.61</v>
+      </c>
+      <c r="X5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y5">
         <v>1</v>
       </c>
-      <c r="X5">
+      <c r="Z5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:26">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5552</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2">
-        <v>41140.33263888889</v>
+        <v>40909.5</v>
       </c>
       <c r="D6">
-        <v>31.78008380974699</v>
+        <v>12.38</v>
       </c>
       <c r="E6">
-        <v>724.72</v>
+        <v>13.73</v>
       </c>
       <c r="F6">
-        <v>352</v>
+        <v>14.42</v>
       </c>
       <c r="G6">
-        <v>14.3</v>
+        <v>13.68</v>
       </c>
       <c r="H6">
-        <v>711.89</v>
+        <v>226.8</v>
       </c>
       <c r="I6">
-        <v>0.95</v>
+        <v>107</v>
       </c>
       <c r="J6">
-        <v>0.96</v>
+        <v>14.72</v>
       </c>
       <c r="K6">
-        <v>0.33</v>
+        <v>231.58</v>
       </c>
       <c r="L6">
-        <v>483.7</v>
+        <v>0.84</v>
       </c>
       <c r="M6">
-        <v>7.92</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="N6">
-        <v>538.5599999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O6">
-        <v>27.38</v>
+        <v>0.09</v>
       </c>
       <c r="P6">
-        <v>277.03</v>
+        <v>111.62</v>
       </c>
       <c r="Q6">
-        <v>31.50621552136363</v>
+        <v>10.01</v>
       </c>
       <c r="R6">
-        <v>34.02303348176625</v>
+        <v>680.6799999999999</v>
       </c>
       <c r="S6">
+        <v>83.76000000000001</v>
+      </c>
+      <c r="T6">
+        <v>30.18179078262646</v>
+      </c>
+      <c r="U6">
         <v>0.3842016</v>
       </c>
-      <c r="T6">
-        <v>0.111</v>
-      </c>
-      <c r="U6">
-        <v>31.53</v>
-      </c>
-      <c r="V6" t="s">
-        <v>23</v>
+      <c r="V6">
+        <v>0.035</v>
       </c>
       <c r="W6">
+        <v>32.71</v>
+      </c>
+      <c r="X6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y6">
         <v>1</v>
       </c>
-      <c r="X6">
+      <c r="Z6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:26">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5553</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2">
-        <v>41140.37430555555</v>
+        <v>40909.54166666666</v>
       </c>
       <c r="D7">
-        <v>36.59493695867236</v>
+        <v>12.38</v>
       </c>
       <c r="E7">
-        <v>1073.8</v>
+        <v>12.62</v>
       </c>
       <c r="F7">
-        <v>525</v>
+        <v>12.72</v>
       </c>
       <c r="G7">
-        <v>14.2</v>
+        <v>12.65</v>
       </c>
       <c r="H7">
-        <v>1041.71</v>
+        <v>34.99</v>
       </c>
       <c r="I7">
-        <v>0.98</v>
+        <v>17</v>
       </c>
       <c r="J7">
-        <v>0.99</v>
+        <v>14.29</v>
       </c>
       <c r="K7">
-        <v>0.49</v>
+        <v>38.61</v>
       </c>
       <c r="L7">
-        <v>646.63</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>503.2</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>30.28</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>413.68</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>36.39784012268746</v>
+        <v>10.14</v>
       </c>
       <c r="R7">
-        <v>35.20275813843804</v>
+        <v>689.52</v>
       </c>
       <c r="S7">
+        <v>13.38</v>
+      </c>
+      <c r="T7">
+        <v>29.94292480675038</v>
+      </c>
+      <c r="U7">
         <v>0.3842016</v>
       </c>
-      <c r="T7">
-        <v>0.164</v>
-      </c>
-      <c r="U7">
-        <v>31.24</v>
-      </c>
-      <c r="V7" t="s">
-        <v>23</v>
+      <c r="V7">
+        <v>0.007</v>
       </c>
       <c r="W7">
-        <v>1</v>
-      </c>
-      <c r="X7">
+        <v>41.18</v>
+      </c>
+      <c r="X7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:26">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5554</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2">
-        <v>41140.41597222222</v>
+        <v>40909.58333333334</v>
       </c>
       <c r="D8">
-        <v>39.55622569701902</v>
+        <v>12.39</v>
       </c>
       <c r="E8">
-        <v>1377.99</v>
+        <v>12.94</v>
       </c>
       <c r="F8">
-        <v>677</v>
+        <v>13.2</v>
       </c>
       <c r="G8">
-        <v>14.13</v>
+        <v>12.95</v>
       </c>
       <c r="H8">
-        <v>1327.55</v>
+        <v>86.02</v>
       </c>
       <c r="I8">
-        <v>0.99</v>
+        <v>42</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>14.22</v>
       </c>
       <c r="K8">
-        <v>0.63</v>
+        <v>91.31999999999999</v>
       </c>
       <c r="L8">
-        <v>801.23</v>
+        <v>0.47</v>
       </c>
       <c r="M8">
-        <v>7.1</v>
+        <v>0.54</v>
       </c>
       <c r="N8">
-        <v>482.8</v>
+        <v>0.54</v>
       </c>
       <c r="O8">
-        <v>31.44</v>
+        <v>0.02</v>
       </c>
       <c r="P8">
-        <v>533.92</v>
+        <v>36.48</v>
       </c>
       <c r="Q8">
-        <v>39.30836390911162</v>
+        <v>10.1</v>
       </c>
       <c r="R8">
-        <v>35.92187916037615</v>
+        <v>686.8</v>
       </c>
       <c r="S8">
+        <v>33.09</v>
+      </c>
+      <c r="T8">
+        <v>30.0119270869451</v>
+      </c>
+      <c r="U8">
         <v>0.3842016</v>
       </c>
-      <c r="T8">
-        <v>0.211</v>
-      </c>
-      <c r="U8">
-        <v>31.17</v>
-      </c>
-      <c r="V8" t="s">
-        <v>23</v>
+      <c r="V8">
+        <v>0.015</v>
       </c>
       <c r="W8">
-        <v>1</v>
-      </c>
-      <c r="X8">
+        <v>35.71</v>
+      </c>
+      <c r="X8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:26">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5555</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2">
-        <v>41140.45763888889</v>
+        <v>40909.625</v>
       </c>
       <c r="D9">
-        <v>41.79465802910201</v>
+        <v>12.39</v>
       </c>
       <c r="E9">
-        <v>1553.47</v>
+        <v>12.39</v>
       </c>
       <c r="F9">
-        <v>768</v>
+        <v>12.39</v>
       </c>
       <c r="G9">
-        <v>14.05</v>
+        <v>12.39</v>
       </c>
       <c r="H9">
-        <v>1492.22</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.72</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>913.5</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>6.88</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>467.84</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>32.6</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>606.36</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>41.52254428354365</v>
+        <v>10.17</v>
       </c>
       <c r="R9">
-        <v>36.47003319711263</v>
+        <v>691.5599999999999</v>
       </c>
       <c r="S9">
-        <v>0.3842016</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>0.239</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>31.12</v>
-      </c>
-      <c r="V9" t="s">
-        <v>23</v>
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>1</v>
-      </c>
-      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="X9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:26">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5556</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2">
-        <v>41140.49930555555</v>
+        <v>40909.66666666666</v>
       </c>
       <c r="D10">
-        <v>42.91391917402582</v>
+        <v>12.31</v>
       </c>
       <c r="E10">
-        <v>1538.72</v>
+        <v>12.31</v>
       </c>
       <c r="F10">
-        <v>764</v>
+        <v>12.31</v>
       </c>
       <c r="G10">
-        <v>13.99</v>
+        <v>12.31</v>
       </c>
       <c r="H10">
-        <v>1478.41</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>901.6799999999999</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>6.77</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>460.36</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>33.76</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>603.66</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>42.64386786003314</v>
+        <v>10.18</v>
       </c>
       <c r="R10">
-        <v>36.74159439858167</v>
+        <v>692.24</v>
       </c>
       <c r="S10">
-        <v>0.3842016</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>0.238</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>31.15</v>
-      </c>
-      <c r="V10" t="s">
-        <v>23</v>
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>1</v>
-      </c>
-      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="X10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:26">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5557</v>
+        <v>17</v>
       </c>
       <c r="C11" s="2">
-        <v>41140.54097222222</v>
+        <v>40909.70833333334</v>
       </c>
       <c r="D11">
-        <v>42.47030915801759</v>
+        <v>12.23</v>
       </c>
       <c r="E11">
-        <v>1349.72</v>
+        <v>12.23</v>
       </c>
       <c r="F11">
-        <v>671</v>
+        <v>12.23</v>
       </c>
       <c r="G11">
-        <v>13.97</v>
+        <v>12.23</v>
       </c>
       <c r="H11">
-        <v>1301.1</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>848.71</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>6.85</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>465.8</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>33.99</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>530.3</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>41.80934062905709</v>
+        <v>10.19</v>
       </c>
       <c r="R11">
-        <v>36.52411564382545</v>
+        <v>692.92</v>
       </c>
       <c r="S11">
-        <v>0.3842016</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>31.3</v>
-      </c>
-      <c r="V11" t="s">
-        <v>23</v>
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>1</v>
-      </c>
-      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="X11" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:26">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5558</v>
+        <v>18</v>
       </c>
       <c r="C12" s="2">
-        <v>41140.58263888889</v>
+        <v>40909.75</v>
       </c>
       <c r="D12">
-        <v>41.16313742222992</v>
+        <v>12.15</v>
       </c>
       <c r="E12">
-        <v>1038.05</v>
+        <v>12.15</v>
       </c>
       <c r="F12">
-        <v>518</v>
+        <v>12.15</v>
       </c>
       <c r="G12">
-        <v>13.92</v>
+        <v>12.15</v>
       </c>
       <c r="H12">
-        <v>1008.41</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>721.66</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>476</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>34.22</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>409.65</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>40.28417660104788</v>
+        <v>10.2</v>
       </c>
       <c r="R12">
-        <v>36.13151436590128</v>
+        <v>693.6</v>
       </c>
       <c r="S12">
-        <v>0.3842016</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>0.163</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>31.47</v>
-      </c>
-      <c r="V12" t="s">
-        <v>23</v>
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>1</v>
-      </c>
-      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="X12" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:26">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5559</v>
+        <v>19</v>
       </c>
       <c r="C13" s="2">
-        <v>41140.62430555555</v>
+        <v>40909.79166666666</v>
       </c>
       <c r="D13">
-        <v>39.44001411660747</v>
+        <v>12.19</v>
       </c>
       <c r="E13">
-        <v>691.72</v>
+        <v>12.19</v>
       </c>
       <c r="F13">
-        <v>347</v>
+        <v>12.19</v>
       </c>
       <c r="G13">
-        <v>13.84</v>
+        <v>12.19</v>
       </c>
       <c r="H13">
-        <v>681.37</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>497.63</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>7.18</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>488.24</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>34.45</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>274.67</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>38.54759380987457</v>
+        <v>10.2</v>
       </c>
       <c r="R13">
-        <v>35.68734588438377</v>
+        <v>693.6</v>
       </c>
       <c r="S13">
-        <v>0.3842016</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>31.7</v>
-      </c>
-      <c r="V13" t="s">
-        <v>23</v>
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
       </c>
       <c r="W13">
-        <v>1</v>
-      </c>
-      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="X13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:26">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5560</v>
+        <v>20</v>
       </c>
       <c r="C14" s="2">
-        <v>41140.66597222222</v>
+        <v>40909.83333333334</v>
       </c>
       <c r="D14">
-        <v>35.75584529946498</v>
+        <v>12.23</v>
       </c>
       <c r="E14">
-        <v>380.74</v>
+        <v>12.23</v>
       </c>
       <c r="F14">
-        <v>192</v>
+        <v>12.23</v>
       </c>
       <c r="G14">
-        <v>13.77</v>
+        <v>12.23</v>
       </c>
       <c r="H14">
-        <v>383.77</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>262.38</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>7.53</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>512.04</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>32.82</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>152.12</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>35.12885669595232</v>
+        <v>10.19</v>
       </c>
       <c r="R14">
-        <v>34.84909185877343</v>
+        <v>692.92</v>
       </c>
       <c r="S14">
-        <v>0.3842016</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>0.062</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>32.29</v>
-      </c>
-      <c r="V14" t="s">
-        <v>23</v>
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>1</v>
-      </c>
-      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="X14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:26">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5561</v>
+        <v>21</v>
       </c>
       <c r="C15" s="2">
-        <v>41140.70763888889</v>
+        <v>40909.875</v>
       </c>
       <c r="D15">
-        <v>32.6141341456872</v>
+        <v>12.27</v>
       </c>
       <c r="E15">
-        <v>165.52</v>
+        <v>12.27</v>
       </c>
       <c r="F15">
-        <v>85</v>
+        <v>12.27</v>
       </c>
       <c r="G15">
-        <v>13.52</v>
+        <v>12.27</v>
       </c>
       <c r="H15">
-        <v>172.88</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>91.55</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>7.83</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>532.4400000000001</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>31.2</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>67.56</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>32.27376331303623</v>
+        <v>10.19</v>
       </c>
       <c r="R15">
-        <v>34.16014518196838</v>
+        <v>692.92</v>
       </c>
       <c r="S15">
-        <v>0.3842016</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>0.029</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>34.12</v>
-      </c>
-      <c r="V15" t="s">
-        <v>23</v>
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
-      <c r="X15">
+      <c r="X15" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:26">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5562</v>
+        <v>22</v>
       </c>
       <c r="C16" s="2">
-        <v>41140.74930555555</v>
+        <v>40909.91666666666</v>
       </c>
       <c r="D16">
-        <v>29.91912043403099</v>
+        <v>12.18</v>
       </c>
       <c r="E16">
-        <v>36.23</v>
+        <v>12.18</v>
       </c>
       <c r="F16">
-        <v>19</v>
+        <v>12.18</v>
       </c>
       <c r="G16">
-        <v>13.24</v>
+        <v>12.18</v>
       </c>
       <c r="H16">
-        <v>40.65</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>8.09</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>550.12</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>29.57</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>15.15</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>29.87792925412037</v>
+        <v>10.2</v>
       </c>
       <c r="R16">
-        <v>33.59110758542812</v>
+        <v>693.6</v>
       </c>
       <c r="S16">
-        <v>0.3842016</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>42.11</v>
-      </c>
-      <c r="V16" t="s">
-        <v>23</v>
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
-      <c r="X16">
+      <c r="X16" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:26">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5563</v>
+        <v>23</v>
       </c>
       <c r="C17" s="2">
-        <v>41140.79097222222</v>
+        <v>40909.95833333334</v>
       </c>
       <c r="D17">
-        <v>27.97</v>
+        <v>12.1</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>12.1</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>12.1</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>12.1</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1672,22 +1774,22 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>8.31</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>565.08</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>27.97</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>27.97</v>
+        <v>10.21</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>694.28</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -1698,138 +1800,236 @@
       <c r="U17">
         <v>0</v>
       </c>
-      <c r="V17" t="s">
-        <v>23</v>
+      <c r="V17">
+        <v>0</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
-      <c r="X17">
+      <c r="X17" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:26">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>88888</v>
+        <v>24</v>
+      </c>
+      <c r="C18" s="2">
+        <v>40910</v>
       </c>
       <c r="D18">
-        <v>533.9799337551883</v>
+        <v>12.02</v>
       </c>
       <c r="E18">
-        <v>10553.83</v>
+        <v>12.02</v>
       </c>
       <c r="F18">
-        <v>5223</v>
+        <v>12.02</v>
       </c>
       <c r="G18">
-        <v>195.06</v>
+        <v>12.02</v>
       </c>
       <c r="H18">
-        <v>10275.93</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>11.4</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>11.55</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>4.74</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>6716.849999999999</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>124.42</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>8460.559999999999</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>467.5</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>4124.48</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>528.847259103646</v>
+        <v>10.22</v>
       </c>
       <c r="R18">
-        <v>486.3062479995193</v>
+        <v>694.96</v>
       </c>
       <c r="S18">
-        <v>5.3788224</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>1.645</v>
+        <v>0</v>
       </c>
       <c r="U18">
-        <v>463.2</v>
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:26">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6349.142857142857</v>
+        <v>272</v>
       </c>
       <c r="D19">
-        <v>38.14142383965631</v>
+        <v>206.18</v>
       </c>
       <c r="E19">
-        <v>753.8449999999999</v>
+        <v>211.46</v>
       </c>
       <c r="F19">
-        <v>373.0714285714286</v>
+        <v>214.05</v>
       </c>
       <c r="G19">
-        <v>13.93285714285714</v>
+        <v>211.52</v>
       </c>
       <c r="H19">
-        <v>733.995</v>
+        <v>885.0799999999999</v>
       </c>
       <c r="I19">
-        <v>0.8142857142857142</v>
+        <v>420</v>
       </c>
       <c r="J19">
-        <v>0.825</v>
+        <v>101.75</v>
       </c>
       <c r="K19">
-        <v>0.3385714285714286</v>
+        <v>918.63</v>
       </c>
       <c r="L19">
-        <v>479.775</v>
+        <v>3.66</v>
       </c>
       <c r="M19">
-        <v>8.887142857142857</v>
+        <v>3.58</v>
       </c>
       <c r="N19">
-        <v>604.3257142857143</v>
+        <v>3.58</v>
       </c>
       <c r="O19">
-        <v>33.39285714285715</v>
+        <v>0.3</v>
       </c>
       <c r="P19">
-        <v>294.6057142857143</v>
+        <v>412.23</v>
       </c>
       <c r="Q19">
-        <v>37.774804221689</v>
+        <v>172.8</v>
       </c>
       <c r="R19">
-        <v>34.73616057139423</v>
+        <v>11750.4</v>
       </c>
       <c r="S19">
+        <v>329.13</v>
+      </c>
+      <c r="T19">
+        <v>209.8407506695759</v>
+      </c>
+      <c r="U19">
+        <v>2.6894112</v>
+      </c>
+      <c r="V19">
+        <v>0.143</v>
+      </c>
+      <c r="W19">
+        <v>253.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>38.85714285714285</v>
+      </c>
+      <c r="D20">
+        <v>29.45428571428571</v>
+      </c>
+      <c r="E20">
+        <v>30.20857142857143</v>
+      </c>
+      <c r="F20">
+        <v>30.57857142857143</v>
+      </c>
+      <c r="G20">
+        <v>30.21714285714286</v>
+      </c>
+      <c r="H20">
+        <v>126.44</v>
+      </c>
+      <c r="I20">
+        <v>60</v>
+      </c>
+      <c r="J20">
+        <v>14.53571428571429</v>
+      </c>
+      <c r="K20">
+        <v>131.2328571428571</v>
+      </c>
+      <c r="L20">
+        <v>0.5228571428571428</v>
+      </c>
+      <c r="M20">
+        <v>0.5114285714285715</v>
+      </c>
+      <c r="N20">
+        <v>0.5114285714285715</v>
+      </c>
+      <c r="O20">
+        <v>0.04285714285714286</v>
+      </c>
+      <c r="P20">
+        <v>58.89</v>
+      </c>
+      <c r="Q20">
+        <v>24.68571428571428</v>
+      </c>
+      <c r="R20">
+        <v>1678.628571428571</v>
+      </c>
+      <c r="S20">
+        <v>47.01857142857143</v>
+      </c>
+      <c r="T20">
+        <v>29.97725009565369</v>
+      </c>
+      <c r="U20">
         <v>0.3842016</v>
       </c>
-      <c r="T19">
-        <v>0.1175</v>
-      </c>
-      <c r="U19">
-        <v>33.08571428571429</v>
+      <c r="V20">
+        <v>0.02042857142857143</v>
+      </c>
+      <c r="W20">
+        <v>36.17142857142857</v>
       </c>
     </row>
   </sheetData>

--- a/Exports/CompleteResult.xlsx
+++ b/Exports/CompleteResult.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
   <si>
     <t>Index</t>
   </si>
@@ -34,7 +34,10 @@
     <t>T heatflux [°C]</t>
   </si>
   <si>
-    <t>Power [W]</t>
+    <t>Power-DC [W]</t>
+  </si>
+  <si>
+    <t>Power-AC [W]</t>
   </si>
   <si>
     <t>Effective Irradiance [W/m^2]</t>
@@ -453,13 +456,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z20"/>
+  <dimension ref="A1:AA27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:27">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -535,40 +538,43 @@
       <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:27">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>40909.33333333334</v>
+        <v>40909</v>
       </c>
       <c r="D2">
-        <v>11.35</v>
+        <v>10.78</v>
       </c>
       <c r="E2">
-        <v>11.57</v>
+        <v>10.78</v>
       </c>
       <c r="F2">
-        <v>11.67</v>
+        <v>10.78</v>
       </c>
       <c r="G2">
-        <v>11.61</v>
+        <v>10.78</v>
       </c>
       <c r="H2">
-        <v>33.2</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>14.41</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>36.68</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -586,389 +592,404 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>10.27</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>698.36</v>
+        <v>10.38</v>
       </c>
       <c r="S2">
-        <v>12.57</v>
+        <v>705.84</v>
       </c>
       <c r="T2">
-        <v>29.71503191153772</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.3842016</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>43.75</v>
-      </c>
-      <c r="X2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>26</v>
       </c>
       <c r="Z2">
         <v>0</v>
       </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:27">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>40909.375</v>
+        <v>40909.04166666666</v>
       </c>
       <c r="D3">
-        <v>11.62</v>
+        <v>10.73</v>
       </c>
       <c r="E3">
-        <v>12.43</v>
+        <v>10.73</v>
       </c>
       <c r="F3">
-        <v>12.81</v>
+        <v>10.73</v>
       </c>
       <c r="G3">
-        <v>12.46</v>
+        <v>10.73</v>
       </c>
       <c r="H3">
-        <v>141.15</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>14.63</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>146.77</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>76.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>10.16</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>690.88</v>
+        <v>10.39</v>
       </c>
       <c r="S3">
-        <v>52.51</v>
+        <v>706.52</v>
       </c>
       <c r="T3">
-        <v>29.90901708002477</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.3842016</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.023</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>34.33</v>
-      </c>
-      <c r="X3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>26</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:27">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2">
-        <v>40909.41666666666</v>
+        <v>40909.08333333334</v>
       </c>
       <c r="D4">
-        <v>11.87</v>
+        <v>10.68</v>
       </c>
       <c r="E4">
-        <v>12.84</v>
+        <v>10.68</v>
       </c>
       <c r="F4">
-        <v>13.32</v>
+        <v>10.68</v>
       </c>
       <c r="G4">
-        <v>12.85</v>
+        <v>10.68</v>
       </c>
       <c r="H4">
-        <v>167.4</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>14.72</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>172.91</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>88.43000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>10.11</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>687.48</v>
+        <v>10.39</v>
       </c>
       <c r="S4">
-        <v>61.84</v>
+        <v>706.52</v>
       </c>
       <c r="T4">
-        <v>29.99541175831767</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.3842016</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.026</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>32.91</v>
-      </c>
-      <c r="X4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>26</v>
       </c>
       <c r="Z4">
         <v>0</v>
       </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:27">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2">
-        <v>40909.45833333334</v>
+        <v>40909.125</v>
       </c>
       <c r="D5">
-        <v>12.12</v>
+        <v>10.63</v>
       </c>
       <c r="E5">
-        <v>13.26</v>
+        <v>10.63</v>
       </c>
       <c r="F5">
-        <v>13.84</v>
+        <v>10.63</v>
       </c>
       <c r="G5">
-        <v>13.25</v>
+        <v>10.63</v>
       </c>
       <c r="H5">
-        <v>195.52</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>14.76</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>200.76</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>98.8</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>10.06</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>684.08</v>
+        <v>10.4</v>
       </c>
       <c r="S5">
-        <v>71.98</v>
+        <v>707.2</v>
       </c>
       <c r="T5">
-        <v>30.08464724337378</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.3842016</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>32.61</v>
-      </c>
-      <c r="X5" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y5">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>26</v>
       </c>
       <c r="Z5">
         <v>0</v>
       </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:27">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2">
-        <v>40909.5</v>
+        <v>40909.16666666666</v>
       </c>
       <c r="D6">
-        <v>12.38</v>
+        <v>10.7</v>
       </c>
       <c r="E6">
-        <v>13.73</v>
+        <v>10.7</v>
       </c>
       <c r="F6">
-        <v>14.42</v>
+        <v>10.7</v>
       </c>
       <c r="G6">
-        <v>13.68</v>
+        <v>10.7</v>
       </c>
       <c r="H6">
-        <v>226.8</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>14.72</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>231.58</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.8100000000000001</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8100000000000001</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>111.62</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>10.01</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>680.6799999999999</v>
+        <v>10.39</v>
       </c>
       <c r="S6">
-        <v>83.76000000000001</v>
+        <v>706.52</v>
       </c>
       <c r="T6">
-        <v>30.18179078262646</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.3842016</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.035</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>32.71</v>
-      </c>
-      <c r="X6" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y6">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>26</v>
       </c>
       <c r="Z6">
         <v>0</v>
       </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:27">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2">
-        <v>40909.54166666666</v>
+        <v>40909.20833333334</v>
       </c>
       <c r="D7">
-        <v>12.38</v>
+        <v>10.76</v>
       </c>
       <c r="E7">
-        <v>12.62</v>
+        <v>10.76</v>
       </c>
       <c r="F7">
-        <v>12.72</v>
+        <v>10.76</v>
       </c>
       <c r="G7">
-        <v>12.65</v>
+        <v>10.76</v>
       </c>
       <c r="H7">
-        <v>34.99</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>14.29</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>38.61</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -986,137 +1007,143 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>10.14</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>689.52</v>
+        <v>10.38</v>
       </c>
       <c r="S7">
-        <v>13.38</v>
+        <v>705.84</v>
       </c>
       <c r="T7">
-        <v>29.94292480675038</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>0.3842016</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>41.18</v>
-      </c>
-      <c r="X7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>26</v>
       </c>
       <c r="Z7">
         <v>0</v>
       </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:27">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2">
-        <v>40909.58333333334</v>
+        <v>40909.25</v>
       </c>
       <c r="D8">
-        <v>12.39</v>
+        <v>10.83</v>
       </c>
       <c r="E8">
-        <v>12.94</v>
+        <v>10.83</v>
       </c>
       <c r="F8">
-        <v>13.2</v>
+        <v>10.83</v>
       </c>
       <c r="G8">
-        <v>12.95</v>
+        <v>10.83</v>
       </c>
       <c r="H8">
-        <v>86.02</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>14.22</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>91.31999999999999</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>36.48</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>10.1</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>686.8</v>
+        <v>10.37</v>
       </c>
       <c r="S8">
-        <v>33.09</v>
+        <v>705.16</v>
       </c>
       <c r="T8">
-        <v>30.0119270869451</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>0.3842016</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>0.015</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>35.71</v>
-      </c>
-      <c r="X8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>26</v>
       </c>
       <c r="Z8">
         <v>0</v>
       </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:27">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2">
-        <v>40909.625</v>
+        <v>40909.29166666666</v>
       </c>
       <c r="D9">
-        <v>12.39</v>
+        <v>11.09</v>
       </c>
       <c r="E9">
-        <v>12.39</v>
+        <v>11.09</v>
       </c>
       <c r="F9">
-        <v>12.39</v>
+        <v>11.09</v>
       </c>
       <c r="G9">
-        <v>12.39</v>
+        <v>11.09</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1146,13 +1173,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>10.17</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>691.5599999999999</v>
+        <v>10.34</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>703.12</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -1166,52 +1193,55 @@
       <c r="W9">
         <v>0</v>
       </c>
-      <c r="X9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>26</v>
       </c>
       <c r="Z9">
         <v>0</v>
       </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:27">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2">
+        <v>40909.33333333334</v>
+      </c>
+      <c r="D10">
+        <v>11.35</v>
+      </c>
+      <c r="E10">
+        <v>11.76</v>
+      </c>
+      <c r="F10">
+        <v>12.01</v>
+      </c>
+      <c r="G10">
+        <v>11.68</v>
+      </c>
+      <c r="H10">
+        <v>33.17</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <v>16</v>
       </c>
-      <c r="C10" s="2">
-        <v>40909.66666666666</v>
-      </c>
-      <c r="D10">
-        <v>12.31</v>
-      </c>
-      <c r="E10">
-        <v>12.31</v>
-      </c>
-      <c r="F10">
-        <v>12.31</v>
-      </c>
-      <c r="G10">
-        <v>12.31</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
       <c r="K10">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>36.66</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -1226,392 +1256,407 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>10.18</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>692.24</v>
+        <v>10.26</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>697.6799999999999</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>12.58</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>29.73030965378678</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>0.3842016</v>
       </c>
       <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="X10">
+        <v>56.25</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>26</v>
       </c>
       <c r="Z10">
         <v>0</v>
       </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:27">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2">
-        <v>40909.70833333334</v>
+        <v>40909.375</v>
       </c>
       <c r="D11">
-        <v>12.23</v>
+        <v>11.62</v>
       </c>
       <c r="E11">
-        <v>12.23</v>
+        <v>13.18</v>
       </c>
       <c r="F11">
-        <v>12.23</v>
+        <v>14.17</v>
       </c>
       <c r="G11">
-        <v>12.23</v>
+        <v>12.76</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>140.69</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>102.35</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>14.58</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>146.37</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Q11">
-        <v>10.19</v>
+        <v>76.56</v>
       </c>
       <c r="R11">
-        <v>692.92</v>
+        <v>10.12</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>688.16</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>52.54</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>29.97310309773996</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>0.3842016</v>
       </c>
       <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
+        <v>0.031</v>
+      </c>
+      <c r="X11">
+        <v>46.27</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>26</v>
       </c>
       <c r="Z11">
         <v>0</v>
       </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:27">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2">
-        <v>40909.75</v>
+        <v>40909.41666666666</v>
       </c>
       <c r="D12">
-        <v>12.15</v>
+        <v>11.87</v>
       </c>
       <c r="E12">
-        <v>12.15</v>
+        <v>13.73</v>
       </c>
       <c r="F12">
-        <v>12.15</v>
+        <v>14.93</v>
       </c>
       <c r="G12">
-        <v>12.15</v>
+        <v>13.2</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>166.76</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>127.7</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>14.66</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>172.35</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="Q12">
-        <v>10.2</v>
+        <v>88</v>
       </c>
       <c r="R12">
-        <v>693.6</v>
+        <v>10.07</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>684.76</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>61.89</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>30.07102726128756</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>0.3842016</v>
       </c>
       <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
+        <v>0.036</v>
+      </c>
+      <c r="X12">
+        <v>45.57</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>26</v>
       </c>
       <c r="Z12">
         <v>0</v>
       </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:27">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C13" s="2">
-        <v>40909.79166666666</v>
+        <v>40909.45833333334</v>
       </c>
       <c r="D13">
-        <v>12.19</v>
+        <v>12.12</v>
       </c>
       <c r="E13">
-        <v>12.19</v>
+        <v>14.31</v>
       </c>
       <c r="F13">
-        <v>12.19</v>
+        <v>15.74</v>
       </c>
       <c r="G13">
-        <v>12.19</v>
+        <v>13.66</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>194.65</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>154.77</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>14.69</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.77</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="Q13">
-        <v>10.2</v>
+        <v>98.26000000000001</v>
       </c>
       <c r="R13">
-        <v>693.6</v>
+        <v>10.01</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>680.6799999999999</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>72.04000000000001</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>30.17281903802917</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>0.3842016</v>
       </c>
       <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
+        <v>0.041</v>
+      </c>
+      <c r="X13">
+        <v>44.57</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>26</v>
       </c>
       <c r="Z13">
+        <v>1</v>
+      </c>
+      <c r="AA13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:27">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C14" s="2">
-        <v>40909.83333333334</v>
+        <v>40909.5</v>
       </c>
       <c r="D14">
-        <v>12.23</v>
+        <v>12.38</v>
       </c>
       <c r="E14">
-        <v>12.23</v>
+        <v>14.94</v>
       </c>
       <c r="F14">
-        <v>12.23</v>
+        <v>16.62</v>
       </c>
       <c r="G14">
-        <v>12.23</v>
+        <v>14.16</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>225.63</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>184.78</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>14.64</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>230.55</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="Q14">
-        <v>10.19</v>
+        <v>110.93</v>
       </c>
       <c r="R14">
-        <v>692.92</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>676.6</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>83.84</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>30.2845926770322</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>0.3842016</v>
       </c>
       <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
+        <v>0.048</v>
+      </c>
+      <c r="X14">
+        <v>44.86</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>26</v>
       </c>
       <c r="Z14">
+        <v>1</v>
+      </c>
+      <c r="AA14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:27">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C15" s="2">
-        <v>40909.875</v>
+        <v>40909.54166666666</v>
       </c>
       <c r="D15">
-        <v>12.27</v>
+        <v>12.38</v>
       </c>
       <c r="E15">
-        <v>12.27</v>
+        <v>12.82</v>
       </c>
       <c r="F15">
-        <v>12.27</v>
+        <v>13.09</v>
       </c>
       <c r="G15">
-        <v>12.27</v>
+        <v>12.73</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>34.95</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>14.28</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>38.58</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1626,137 +1671,143 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10.19</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>692.92</v>
+        <v>10.13</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>688.84</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>13.38</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>29.95924822170625</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>0.3842016</v>
       </c>
       <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y15">
-        <v>0</v>
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="X15">
+        <v>52.94</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>26</v>
       </c>
       <c r="Z15">
         <v>0</v>
       </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:27">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C16" s="2">
-        <v>40909.91666666666</v>
+        <v>40909.58333333334</v>
       </c>
       <c r="D16">
-        <v>12.18</v>
+        <v>12.39</v>
       </c>
       <c r="E16">
-        <v>12.18</v>
+        <v>13.42</v>
       </c>
       <c r="F16">
-        <v>12.18</v>
+        <v>14.07</v>
       </c>
       <c r="G16">
-        <v>12.18</v>
+        <v>13.14</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>85.83</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>48.8</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>14.19</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>91.16</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="Q16">
-        <v>10.2</v>
+        <v>36.34</v>
       </c>
       <c r="R16">
-        <v>693.6</v>
+        <v>10.08</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>685.4400000000001</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>33.1</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>30.05235983972526</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>0.3842016</v>
       </c>
       <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
+        <v>0.02</v>
+      </c>
+      <c r="X16">
+        <v>47.62</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>26</v>
       </c>
       <c r="Z16">
         <v>0</v>
       </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:27">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C17" s="2">
-        <v>40909.95833333334</v>
+        <v>40909.625</v>
       </c>
       <c r="D17">
-        <v>12.1</v>
+        <v>12.39</v>
       </c>
       <c r="E17">
-        <v>12.1</v>
+        <v>12.39</v>
       </c>
       <c r="F17">
-        <v>12.1</v>
+        <v>12.39</v>
       </c>
       <c r="G17">
-        <v>12.1</v>
+        <v>12.39</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1786,13 +1837,13 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>10.21</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>694.28</v>
+        <v>10.17</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>691.5599999999999</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -1806,37 +1857,40 @@
       <c r="W17">
         <v>0</v>
       </c>
-      <c r="X17" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>26</v>
       </c>
       <c r="Z17">
         <v>0</v>
       </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:27">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C18" s="2">
-        <v>40910</v>
+        <v>40909.66666666666</v>
       </c>
       <c r="D18">
-        <v>12.02</v>
+        <v>12.31</v>
       </c>
       <c r="E18">
-        <v>12.02</v>
+        <v>12.31</v>
       </c>
       <c r="F18">
-        <v>12.02</v>
+        <v>12.31</v>
       </c>
       <c r="G18">
-        <v>12.02</v>
+        <v>12.31</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1866,13 +1920,13 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>10.22</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>694.96</v>
+        <v>10.18</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>692.24</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -1886,150 +1940,740 @@
       <c r="W18">
         <v>0</v>
       </c>
-      <c r="X18" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>26</v>
       </c>
       <c r="Z18">
         <v>0</v>
       </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:27">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>272</v>
+        <v>17</v>
+      </c>
+      <c r="C19" s="2">
+        <v>40909.70833333334</v>
       </c>
       <c r="D19">
-        <v>206.18</v>
+        <v>12.23</v>
       </c>
       <c r="E19">
-        <v>211.46</v>
+        <v>12.23</v>
       </c>
       <c r="F19">
-        <v>214.05</v>
+        <v>12.23</v>
       </c>
       <c r="G19">
-        <v>211.52</v>
+        <v>12.23</v>
       </c>
       <c r="H19">
-        <v>885.0799999999999</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>101.75</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>918.63</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>3.66</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>3.58</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>3.58</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>412.23</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>172.8</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>11750.4</v>
+        <v>10.19</v>
       </c>
       <c r="S19">
-        <v>329.13</v>
+        <v>692.92</v>
       </c>
       <c r="T19">
-        <v>209.8407506695759</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>2.6894112</v>
+        <v>0</v>
       </c>
       <c r="V19">
-        <v>0.143</v>
+        <v>0</v>
       </c>
       <c r="W19">
-        <v>253.2</v>
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:27">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>38.85714285714285</v>
+        <v>18</v>
+      </c>
+      <c r="C20" s="2">
+        <v>40909.75</v>
       </c>
       <c r="D20">
-        <v>29.45428571428571</v>
+        <v>12.15</v>
       </c>
       <c r="E20">
-        <v>30.20857142857143</v>
+        <v>12.15</v>
       </c>
       <c r="F20">
-        <v>30.57857142857143</v>
+        <v>12.15</v>
       </c>
       <c r="G20">
-        <v>30.21714285714286</v>
+        <v>12.15</v>
       </c>
       <c r="H20">
-        <v>126.44</v>
+        <v>0</v>
       </c>
       <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>10.2</v>
+      </c>
+      <c r="S20">
+        <v>693.6</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2">
+        <v>40909.79166666666</v>
+      </c>
+      <c r="D21">
+        <v>12.19</v>
+      </c>
+      <c r="E21">
+        <v>12.19</v>
+      </c>
+      <c r="F21">
+        <v>12.19</v>
+      </c>
+      <c r="G21">
+        <v>12.19</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>10.2</v>
+      </c>
+      <c r="S21">
+        <v>693.6</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22" s="2">
+        <v>40909.83333333334</v>
+      </c>
+      <c r="D22">
+        <v>12.23</v>
+      </c>
+      <c r="E22">
+        <v>12.23</v>
+      </c>
+      <c r="F22">
+        <v>12.23</v>
+      </c>
+      <c r="G22">
+        <v>12.23</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>10.19</v>
+      </c>
+      <c r="S22">
+        <v>692.92</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23" s="2">
+        <v>40909.875</v>
+      </c>
+      <c r="D23">
+        <v>12.27</v>
+      </c>
+      <c r="E23">
+        <v>12.27</v>
+      </c>
+      <c r="F23">
+        <v>12.27</v>
+      </c>
+      <c r="G23">
+        <v>12.27</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>10.19</v>
+      </c>
+      <c r="S23">
+        <v>692.92</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24" s="2">
+        <v>40909.91666666666</v>
+      </c>
+      <c r="D24">
+        <v>12.18</v>
+      </c>
+      <c r="E24">
+        <v>12.18</v>
+      </c>
+      <c r="F24">
+        <v>12.18</v>
+      </c>
+      <c r="G24">
+        <v>12.18</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>10.2</v>
+      </c>
+      <c r="S24">
+        <v>693.6</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25" s="2">
+        <v>40909.95833333334</v>
+      </c>
+      <c r="D25">
+        <v>12.1</v>
+      </c>
+      <c r="E25">
+        <v>12.1</v>
+      </c>
+      <c r="F25">
+        <v>12.1</v>
+      </c>
+      <c r="G25">
+        <v>12.1</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>10.21</v>
+      </c>
+      <c r="S25">
+        <v>694.28</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>276</v>
+      </c>
+      <c r="D26">
+        <v>280.36</v>
+      </c>
+      <c r="E26">
+        <v>290.41</v>
+      </c>
+      <c r="F26">
+        <v>296.88</v>
+      </c>
+      <c r="G26">
+        <v>287.58</v>
+      </c>
+      <c r="H26">
+        <v>881.6799999999999</v>
+      </c>
+      <c r="I26">
+        <v>618.4000000000001</v>
+      </c>
+      <c r="J26">
+        <v>420</v>
+      </c>
+      <c r="K26">
+        <v>101.44</v>
+      </c>
+      <c r="L26">
+        <v>915.67</v>
+      </c>
+      <c r="M26">
+        <v>3.66</v>
+      </c>
+      <c r="N26">
+        <v>3.58</v>
+      </c>
+      <c r="O26">
+        <v>3.54</v>
+      </c>
+      <c r="P26">
+        <v>0.3</v>
+      </c>
+      <c r="Q26">
+        <v>410.09</v>
+      </c>
+      <c r="R26">
+        <v>245.39</v>
+      </c>
+      <c r="S26">
+        <v>16686.52</v>
+      </c>
+      <c r="T26">
+        <v>329.37</v>
+      </c>
+      <c r="U26">
+        <v>210.2434597893072</v>
+      </c>
+      <c r="V26">
+        <v>2.6894112</v>
+      </c>
+      <c r="W26">
+        <v>0.194</v>
+      </c>
+      <c r="X26">
+        <v>338.08</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>39.42857142857143</v>
+      </c>
+      <c r="D27">
+        <v>40.05142857142857</v>
+      </c>
+      <c r="E27">
+        <v>41.48714285714285</v>
+      </c>
+      <c r="F27">
+        <v>42.41142857142857</v>
+      </c>
+      <c r="G27">
+        <v>41.08285714285714</v>
+      </c>
+      <c r="H27">
+        <v>125.9542857142857</v>
+      </c>
+      <c r="I27">
+        <v>88.34285714285716</v>
+      </c>
+      <c r="J27">
         <v>60</v>
       </c>
-      <c r="J20">
-        <v>14.53571428571429</v>
-      </c>
-      <c r="K20">
-        <v>131.2328571428571</v>
-      </c>
-      <c r="L20">
+      <c r="K27">
+        <v>14.49142857142857</v>
+      </c>
+      <c r="L27">
+        <v>130.81</v>
+      </c>
+      <c r="M27">
         <v>0.5228571428571428</v>
       </c>
-      <c r="M20">
+      <c r="N27">
         <v>0.5114285714285715</v>
       </c>
-      <c r="N20">
-        <v>0.5114285714285715</v>
-      </c>
-      <c r="O20">
+      <c r="O27">
+        <v>0.5057142857142857</v>
+      </c>
+      <c r="P27">
         <v>0.04285714285714286</v>
       </c>
-      <c r="P20">
-        <v>58.89</v>
-      </c>
-      <c r="Q20">
-        <v>24.68571428571428</v>
-      </c>
-      <c r="R20">
-        <v>1678.628571428571</v>
-      </c>
-      <c r="S20">
-        <v>47.01857142857143</v>
-      </c>
-      <c r="T20">
-        <v>29.97725009565369</v>
-      </c>
-      <c r="U20">
+      <c r="Q27">
+        <v>58.58428571428572</v>
+      </c>
+      <c r="R27">
+        <v>35.05571428571428</v>
+      </c>
+      <c r="S27">
+        <v>2383.788571428572</v>
+      </c>
+      <c r="T27">
+        <v>47.05285714285714</v>
+      </c>
+      <c r="U27">
+        <v>30.03477996990103</v>
+      </c>
+      <c r="V27">
         <v>0.3842016</v>
       </c>
-      <c r="V20">
-        <v>0.02042857142857143</v>
-      </c>
-      <c r="W20">
-        <v>36.17142857142857</v>
+      <c r="W27">
+        <v>0.02771428571428572</v>
+      </c>
+      <c r="X27">
+        <v>48.29714285714287</v>
       </c>
     </row>
   </sheetData>

--- a/Exports/CompleteResult.xlsx
+++ b/Exports/CompleteResult.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariu\Documents\GitHub\Modelling_of_Solar_Roof_Tiles\Modelling-of-Solar-Roof-Tile\Exports\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD9DFD6-8765-4CBF-9E04-E6CE8D72AE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -100,11 +106,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,15 +170,23 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -214,7 +228,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -246,9 +260,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -280,6 +312,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -455,14 +505,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,7 +594,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -625,7 +677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -633,7 +685,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>40909.04166666666</v>
+        <v>40909.041666666657</v>
       </c>
       <c r="D3">
         <v>10.73</v>
@@ -708,7 +760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -716,7 +768,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="2">
-        <v>40909.08333333334</v>
+        <v>40909.083333333343</v>
       </c>
       <c r="D4">
         <v>10.68</v>
@@ -791,7 +843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -874,7 +926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -882,7 +934,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="2">
-        <v>40909.16666666666</v>
+        <v>40909.166666666657</v>
       </c>
       <c r="D6">
         <v>10.7</v>
@@ -957,7 +1009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -965,7 +1017,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="2">
-        <v>40909.20833333334</v>
+        <v>40909.208333333343</v>
       </c>
       <c r="D7">
         <v>10.76</v>
@@ -1040,7 +1092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1123,7 +1175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1131,7 +1183,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="2">
-        <v>40909.29166666666</v>
+        <v>40909.291666666657</v>
       </c>
       <c r="D9">
         <v>11.09</v>
@@ -1206,7 +1258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1214,7 +1266,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="2">
-        <v>40909.33333333334</v>
+        <v>40909.333333333343</v>
       </c>
       <c r="D10">
         <v>11.35</v>
@@ -1241,7 +1293,7 @@
         <v>14.4</v>
       </c>
       <c r="L10">
-        <v>36.66</v>
+        <v>36.659999999999997</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -1262,19 +1314,19 @@
         <v>10.26</v>
       </c>
       <c r="S10">
-        <v>697.6799999999999</v>
+        <v>697.68</v>
       </c>
       <c r="T10">
         <v>12.58</v>
       </c>
       <c r="U10">
-        <v>29.73030965378678</v>
+        <v>29.730309653786779</v>
       </c>
       <c r="V10">
-        <v>0.3842016</v>
+        <v>0.38420159999999998</v>
       </c>
       <c r="W10">
-        <v>0.008999999999999999</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="X10">
         <v>56.25</v>
@@ -1289,7 +1341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1342,7 +1394,7 @@
         <v>76.56</v>
       </c>
       <c r="R11">
-        <v>10.12</v>
+        <v>10.119999999999999</v>
       </c>
       <c r="S11">
         <v>688.16</v>
@@ -1351,13 +1403,13 @@
         <v>52.54</v>
       </c>
       <c r="U11">
-        <v>29.97310309773996</v>
+        <v>29.973103097739958</v>
       </c>
       <c r="V11">
-        <v>0.3842016</v>
+        <v>0.38420159999999998</v>
       </c>
       <c r="W11">
-        <v>0.031</v>
+        <v>3.1E-2</v>
       </c>
       <c r="X11">
         <v>46.27</v>
@@ -1372,7 +1424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1380,7 +1432,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="2">
-        <v>40909.41666666666</v>
+        <v>40909.416666666657</v>
       </c>
       <c r="D12">
         <v>11.87</v>
@@ -1434,13 +1486,13 @@
         <v>61.89</v>
       </c>
       <c r="U12">
-        <v>30.07102726128756</v>
+        <v>30.071027261287561</v>
       </c>
       <c r="V12">
-        <v>0.3842016</v>
+        <v>0.38420159999999998</v>
       </c>
       <c r="W12">
-        <v>0.036</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="X12">
         <v>45.57</v>
@@ -1455,7 +1507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1463,7 +1515,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="2">
-        <v>40909.45833333334</v>
+        <v>40909.458333333343</v>
       </c>
       <c r="D13">
         <v>12.12</v>
@@ -1481,7 +1533,7 @@
         <v>194.65</v>
       </c>
       <c r="I13">
-        <v>154.77</v>
+        <v>154.77000000000001</v>
       </c>
       <c r="J13">
         <v>92</v>
@@ -1505,25 +1557,25 @@
         <v>0.08</v>
       </c>
       <c r="Q13">
-        <v>98.26000000000001</v>
+        <v>98.26</v>
       </c>
       <c r="R13">
         <v>10.01</v>
       </c>
       <c r="S13">
-        <v>680.6799999999999</v>
+        <v>680.68</v>
       </c>
       <c r="T13">
-        <v>72.04000000000001</v>
+        <v>72.040000000000006</v>
       </c>
       <c r="U13">
-        <v>30.17281903802917</v>
+        <v>30.172819038029171</v>
       </c>
       <c r="V13">
-        <v>0.3842016</v>
+        <v>0.38420159999999998</v>
       </c>
       <c r="W13">
-        <v>0.041</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="X13">
         <v>44.57</v>
@@ -1538,7 +1590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1579,7 +1631,7 @@
         <v>0.84</v>
       </c>
       <c r="N14">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="O14">
         <v>0.8</v>
@@ -1591,7 +1643,7 @@
         <v>110.93</v>
       </c>
       <c r="R14">
-        <v>9.949999999999999</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="S14">
         <v>676.6</v>
@@ -1600,13 +1652,13 @@
         <v>83.84</v>
       </c>
       <c r="U14">
-        <v>30.2845926770322</v>
+        <v>30.284592677032201</v>
       </c>
       <c r="V14">
-        <v>0.3842016</v>
+        <v>0.38420159999999998</v>
       </c>
       <c r="W14">
-        <v>0.048</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="X14">
         <v>44.86</v>
@@ -1621,7 +1673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1629,7 +1681,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="2">
-        <v>40909.54166666666</v>
+        <v>40909.541666666657</v>
       </c>
       <c r="D15">
         <v>12.38</v>
@@ -1644,7 +1696,7 @@
         <v>12.73</v>
       </c>
       <c r="H15">
-        <v>34.95</v>
+        <v>34.950000000000003</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1674,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="R15">
-        <v>10.13</v>
+        <v>10.130000000000001</v>
       </c>
       <c r="S15">
         <v>688.84</v>
@@ -1686,10 +1738,10 @@
         <v>29.95924822170625</v>
       </c>
       <c r="V15">
-        <v>0.3842016</v>
+        <v>0.38420159999999998</v>
       </c>
       <c r="W15">
-        <v>0.008999999999999999</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="X15">
         <v>52.94</v>
@@ -1704,7 +1756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1712,7 +1764,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="2">
-        <v>40909.58333333334</v>
+        <v>40909.583333333343</v>
       </c>
       <c r="D16">
         <v>12.39</v>
@@ -1754,22 +1806,22 @@
         <v>0.02</v>
       </c>
       <c r="Q16">
-        <v>36.34</v>
+        <v>36.340000000000003</v>
       </c>
       <c r="R16">
         <v>10.08</v>
       </c>
       <c r="S16">
-        <v>685.4400000000001</v>
+        <v>685.44</v>
       </c>
       <c r="T16">
         <v>33.1</v>
       </c>
       <c r="U16">
-        <v>30.05235983972526</v>
+        <v>30.052359839725259</v>
       </c>
       <c r="V16">
-        <v>0.3842016</v>
+        <v>0.38420159999999998</v>
       </c>
       <c r="W16">
         <v>0.02</v>
@@ -1787,7 +1839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1843,7 +1895,7 @@
         <v>10.17</v>
       </c>
       <c r="S17">
-        <v>691.5599999999999</v>
+        <v>691.56</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -1870,7 +1922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1878,7 +1930,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="2">
-        <v>40909.66666666666</v>
+        <v>40909.666666666657</v>
       </c>
       <c r="D18">
         <v>12.31</v>
@@ -1953,7 +2005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1961,7 +2013,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="2">
-        <v>40909.70833333334</v>
+        <v>40909.708333333343</v>
       </c>
       <c r="D19">
         <v>12.23</v>
@@ -2036,7 +2088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2089,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="R20">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="S20">
         <v>693.6</v>
@@ -2119,7 +2171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2127,7 +2179,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="2">
-        <v>40909.79166666666</v>
+        <v>40909.791666666657</v>
       </c>
       <c r="D21">
         <v>12.19</v>
@@ -2172,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="R21">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="S21">
         <v>693.6</v>
@@ -2202,7 +2254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2210,7 +2262,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="2">
-        <v>40909.83333333334</v>
+        <v>40909.833333333343</v>
       </c>
       <c r="D22">
         <v>12.23</v>
@@ -2285,7 +2337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2368,7 +2420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2376,7 +2428,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="2">
-        <v>40909.91666666666</v>
+        <v>40909.916666666657</v>
       </c>
       <c r="D24">
         <v>12.18</v>
@@ -2421,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="R24">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="S24">
         <v>693.6</v>
@@ -2451,7 +2503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2459,7 +2511,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="2">
-        <v>40909.95833333334</v>
+        <v>40909.958333333343</v>
       </c>
       <c r="D25">
         <v>12.1</v>
@@ -2504,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="R25">
-        <v>10.21</v>
+        <v>10.210000000000001</v>
       </c>
       <c r="S25">
         <v>694.28</v>
@@ -2534,7 +2586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2545,7 +2597,7 @@
         <v>280.36</v>
       </c>
       <c r="E26">
-        <v>290.41</v>
+        <v>290.41000000000003</v>
       </c>
       <c r="F26">
         <v>296.88</v>
@@ -2554,10 +2606,10 @@
         <v>287.58</v>
       </c>
       <c r="H26">
-        <v>881.6799999999999</v>
+        <v>881.68</v>
       </c>
       <c r="I26">
-        <v>618.4000000000001</v>
+        <v>618.40000000000009</v>
       </c>
       <c r="J26">
         <v>420</v>
@@ -2596,45 +2648,45 @@
         <v>210.2434597893072</v>
       </c>
       <c r="V26">
-        <v>2.6894112</v>
+        <v>2.6894111999999999</v>
       </c>
       <c r="W26">
-        <v>0.194</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="X26">
         <v>338.08</v>
       </c>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>39.42857142857143</v>
+        <v>39.428571428571431</v>
       </c>
       <c r="D27">
-        <v>40.05142857142857</v>
+        <v>40.051428571428573</v>
       </c>
       <c r="E27">
         <v>41.48714285714285</v>
       </c>
       <c r="F27">
-        <v>42.41142857142857</v>
+        <v>42.411428571428573</v>
       </c>
       <c r="G27">
-        <v>41.08285714285714</v>
+        <v>41.082857142857137</v>
       </c>
       <c r="H27">
         <v>125.9542857142857</v>
       </c>
       <c r="I27">
-        <v>88.34285714285716</v>
+        <v>88.342857142857156</v>
       </c>
       <c r="J27">
         <v>60</v>
       </c>
       <c r="K27">
-        <v>14.49142857142857</v>
+        <v>14.491428571428569</v>
       </c>
       <c r="L27">
         <v>130.81</v>
@@ -2643,37 +2695,37 @@
         <v>0.5228571428571428</v>
       </c>
       <c r="N27">
-        <v>0.5114285714285715</v>
+        <v>0.51142857142857145</v>
       </c>
       <c r="O27">
-        <v>0.5057142857142857</v>
+        <v>0.50571428571428567</v>
       </c>
       <c r="P27">
-        <v>0.04285714285714286</v>
+        <v>4.2857142857142858E-2</v>
       </c>
       <c r="Q27">
         <v>58.58428571428572</v>
       </c>
       <c r="R27">
-        <v>35.05571428571428</v>
+        <v>35.055714285714281</v>
       </c>
       <c r="S27">
-        <v>2383.788571428572</v>
+        <v>2383.7885714285721</v>
       </c>
       <c r="T27">
-        <v>47.05285714285714</v>
+        <v>47.052857142857142</v>
       </c>
       <c r="U27">
-        <v>30.03477996990103</v>
+        <v>30.034779969901031</v>
       </c>
       <c r="V27">
-        <v>0.3842016</v>
+        <v>0.38420159999999998</v>
       </c>
       <c r="W27">
-        <v>0.02771428571428572</v>
+        <v>2.7714285714285719E-2</v>
       </c>
       <c r="X27">
-        <v>48.29714285714287</v>
+        <v>48.297142857142873</v>
       </c>
     </row>
   </sheetData>
